--- a/exercises/ex050.MF_pipe_new.xlsx
+++ b/exercises/ex050.MF_pipe_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr codeName="Workbook________" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\exercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F6D3A4-8781-47F0-BD2B-324A616A5BE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5CB4E2-ED7A-4716-A836-12539A8A0D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="трубопровод" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -951,7 +953,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1006,61 +1008,61 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>17.632808919549035</c:v>
+                  <c:v>18.203319786578863</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.817135009555987</c:v>
+                  <c:v>20.309273790043498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.139084729658084</c:v>
+                  <c:v>22.548352324668475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.600034638943608</c:v>
+                  <c:v>24.922957201614828</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.2173410905</c:v>
+                  <c:v>27.451482752197492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.041364579530949</c:v>
+                  <c:v>30.18781200814999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.009933129264013</c:v>
+                  <c:v>33.072624854970911</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.123482606838401</c:v>
+                  <c:v>36.108145583302601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.414858506981318</c:v>
+                  <c:v>39.331890478421599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.900059756512633</c:v>
+                  <c:v>42.76696848398268</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.529803153616584</c:v>
+                  <c:v>46.363489718883834</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.303398708095813</c:v>
+                  <c:v>50.122896353291857</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54.266679670779155</c:v>
+                  <c:v>54.102289119142732</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.988691866288988</c:v>
+                  <c:v>58.840840899925638</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>64.065311468489838</c:v>
+                  <c:v>63.927557116516105</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>69.336281991919961</c:v>
+                  <c:v>69.200915479038741</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74.574015572957052</c:v>
+                  <c:v>74.454523224966437</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79.755921742187581</c:v>
+                  <c:v>79.662844110191159</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>84.895741117431442</c:v>
+                  <c:v>84.841666990061469</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>90</c:v>
@@ -1211,7 +1213,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2050658607"/>
@@ -1273,7 +1275,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="13642095"/>
@@ -1321,7 +1323,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1396,61 +1398,61 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>21.504551809806248</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.243982806275294</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.982533619631564</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.720193522389931</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.456848625199061</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.192247361436301</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.926892064198316</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.660901182639282</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.394387647441519</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.128270849853966</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.863854423848689</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.602614036332209</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.350624387865071</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.108340507211327</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.908883297360468</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.785766088091044</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33.958621737278314</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.819731046532453</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.984417453209602</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44</c:v>
@@ -1600,7 +1602,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2050658607"/>
@@ -1662,7 +1664,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="13642095"/>
@@ -1710,7 +1712,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1785,64 +1787,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.31781214365257437</c:v>
+                  <c:v>0.31071269081179359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34266324527328501</c:v>
+                  <c:v>0.33470921528018915</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36796994668856231</c:v>
+                  <c:v>0.3593743141991842</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39371672761542237</c:v>
+                  <c:v>0.38472220009121355</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41993092982878527</c:v>
+                  <c:v>0.41084847778999578</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44668919279880809</c:v>
+                  <c:v>0.43802876656136952</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47377772319985634</c:v>
+                  <c:v>0.46595938839706624</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50117085226574887</c:v>
+                  <c:v>0.494646762284078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52888769744286512</c:v>
+                  <c:v>0.52426844164643105</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55686923981617598</c:v>
+                  <c:v>0.55489784187215374</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.58499268084762002</c:v>
+                  <c:v>0.58625219055178779</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61322383130405644</c:v>
+                  <c:v>0.61830428681369365</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.64151454355784154</c:v>
+                  <c:v>0.65120089870913322</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79544791510646329</c:v>
+                  <c:v>0.80286109693577123</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.90709439935437863</c:v>
+                  <c:v>0.91278833470158116</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.91667801430037621</c:v>
+                  <c:v>0.92387771056534984</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92636415820018136</c:v>
+                  <c:v>0.9348740590135024</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93444042342744571</c:v>
+                  <c:v>0.94432394022219335</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94009143990044941</c:v>
+                  <c:v>0.9517342876252628</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94253612126001329</c:v>
+                  <c:v>0.95658693059062594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1989,7 +1991,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2050658607"/>
@@ -2051,7 +2053,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="13642095"/>
@@ -2099,7 +2101,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3908,8 +3910,8 @@
       <definedName name="PVT_encode_string"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4215,16 +4217,16 @@
   <sheetPr codeName="Worksheet____1"/>
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W43" sqref="W43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4233,20 +4235,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -4262,7 +4264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -4278,7 +4280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -4294,7 +4296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
@@ -4312,7 +4314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
@@ -4330,7 +4332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
@@ -4348,7 +4350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
@@ -4366,7 +4368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
@@ -4377,7 +4379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
@@ -4388,12 +4390,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>22</v>
       </c>
@@ -4404,7 +4406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
@@ -4415,13 +4417,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
@@ -4438,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>30</v>
       </c>
@@ -4449,7 +4451,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>32</v>
       </c>
@@ -4460,7 +4462,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
@@ -4471,7 +4473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
@@ -4482,7 +4484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>36</v>
       </c>
@@ -4493,7 +4495,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>38</v>
       </c>
@@ -4504,13 +4506,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="13" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:300,000;pb_atma:120,000;tres_C:100,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;p_ksep_atma:-1,000;t_ksep_C:-1,000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:300.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -4518,7 +4520,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="O30" s="9" t="s">
         <v>59</v>
       </c>
@@ -4526,7 +4528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O31" s="9" t="s">
         <v>58</v>
       </c>
@@ -4534,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>40</v>
       </c>
@@ -4542,7 +4544,7 @@
       <c r="D32" s="15"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="2:32" ht="29.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:32" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B33" s="16" t="s">
         <v>41</v>
       </c>
@@ -4560,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:32" ht="29.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:32" ht="31.5" x14ac:dyDescent="0.35">
       <c r="B34" s="16" t="s">
         <v>42</v>
       </c>
@@ -4578,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:32" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:32" ht="18" x14ac:dyDescent="0.35">
       <c r="B35" s="16" t="s">
         <v>44</v>
       </c>
@@ -4590,7 +4592,7 @@
       </c>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="2:32" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:32" ht="18" x14ac:dyDescent="0.35">
       <c r="B36" s="16" t="s">
         <v>45</v>
       </c>
@@ -4602,7 +4604,7 @@
       </c>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="2:32" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:32" ht="18" x14ac:dyDescent="0.35">
       <c r="B37" s="16" t="s">
         <v>46</v>
       </c>
@@ -4614,14 +4616,14 @@
       </c>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
       <c r="G38" s="10"/>
       <c r="V38" s="21">
         <f t="array" ref="V38:AF68">[1]!MF_p_pipeline_atma(qliq_,fw_,B43:C48,Pcalc_,C25,P33,P34,PVTstr_,,hcor,E43:F45,tempm)</f>
-        <v>17.632808919549035</v>
+        <v>18.203319786578863</v>
       </c>
       <c r="W38" s="21">
-        <v>21.504551809806248</v>
+        <v>44</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -4651,7 +4653,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
       <c r="G39" s="10"/>
       <c r="V39" t="str">
         <v>p_result_atma</v>
@@ -4687,7 +4689,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
         <v>47</v>
       </c>
@@ -4737,7 +4739,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="2:32" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:32" ht="18" x14ac:dyDescent="0.35">
       <c r="B41" s="18" t="s">
         <v>51</v>
       </c>
@@ -4773,13 +4775,13 @@
         <v>0</v>
       </c>
       <c r="Y41" s="21">
-        <v>17.632808919549035</v>
+        <v>18.203319786578863</v>
       </c>
       <c r="Z41" s="21">
-        <v>21.504551809806248</v>
+        <v>44</v>
       </c>
       <c r="AA41">
-        <v>0.31781214365257437</v>
+        <v>0.31071269081179359</v>
       </c>
       <c r="AB41">
         <v>3</v>
@@ -4797,7 +4799,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>28</v>
       </c>
@@ -4833,13 +4835,13 @@
         <v>73.684210526315795</v>
       </c>
       <c r="Y42" s="21">
-        <v>19.817135009555987</v>
+        <v>20.309273790043498</v>
       </c>
       <c r="Z42" s="21">
-        <v>22.243982806275294</v>
+        <v>44</v>
       </c>
       <c r="AA42">
-        <v>0.34266324527328501</v>
+        <v>0.33470921528018915</v>
       </c>
       <c r="AB42">
         <v>3</v>
@@ -4857,7 +4859,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B43" s="17">
         <v>0</v>
       </c>
@@ -4893,13 +4895,13 @@
         <v>147.36842105263159</v>
       </c>
       <c r="Y43" s="21">
-        <v>22.139084729658084</v>
+        <v>22.548352324668475</v>
       </c>
       <c r="Z43" s="21">
-        <v>22.982533619631564</v>
+        <v>44</v>
       </c>
       <c r="AA43">
-        <v>0.36796994668856231</v>
+        <v>0.3593743141991842</v>
       </c>
       <c r="AB43">
         <v>3</v>
@@ -4917,7 +4919,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B44" s="17">
         <v>1000</v>
       </c>
@@ -4953,13 +4955,13 @@
         <v>221.0526315789474</v>
       </c>
       <c r="Y44" s="21">
-        <v>24.600034638943608</v>
+        <v>24.922957201614828</v>
       </c>
       <c r="Z44" s="21">
-        <v>23.720193522389931</v>
+        <v>44</v>
       </c>
       <c r="AA44">
-        <v>0.39371672761542237</v>
+        <v>0.38472220009121355</v>
       </c>
       <c r="AB44">
         <v>3</v>
@@ -4977,7 +4979,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B45" s="17">
         <v>1100</v>
       </c>
@@ -5013,13 +5015,13 @@
         <v>294.73684210526318</v>
       </c>
       <c r="Y45" s="21">
-        <v>27.2173410905</v>
+        <v>27.451482752197492</v>
       </c>
       <c r="Z45" s="21">
-        <v>24.456848625199061</v>
+        <v>44</v>
       </c>
       <c r="AA45">
-        <v>0.41993092982878527</v>
+        <v>0.41084847778999578</v>
       </c>
       <c r="AB45">
         <v>3</v>
@@ -5037,7 +5039,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B46" s="17">
         <v>1200</v>
       </c>
@@ -5061,13 +5063,13 @@
         <v>368.42105263157896</v>
       </c>
       <c r="Y46" s="21">
-        <v>30.041364579530949</v>
+        <v>30.18781200814999</v>
       </c>
       <c r="Z46" s="21">
-        <v>25.192247361436301</v>
+        <v>44</v>
       </c>
       <c r="AA46">
-        <v>0.44668919279880809</v>
+        <v>0.43802876656136952</v>
       </c>
       <c r="AB46">
         <v>3</v>
@@ -5085,7 +5087,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B47" s="17">
         <v>1300</v>
       </c>
@@ -5109,13 +5111,13 @@
         <v>442.1052631578948</v>
       </c>
       <c r="Y47" s="21">
-        <v>33.009933129264013</v>
+        <v>33.072624854970911</v>
       </c>
       <c r="Z47" s="21">
-        <v>25.926892064198316</v>
+        <v>44</v>
       </c>
       <c r="AA47">
-        <v>0.47377772319985634</v>
+        <v>0.46595938839706624</v>
       </c>
       <c r="AB47">
         <v>3</v>
@@ -5133,7 +5135,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B48" s="17">
         <v>1400</v>
       </c>
@@ -5157,13 +5159,13 @@
         <v>515.78947368421052</v>
       </c>
       <c r="Y48" s="21">
-        <v>36.123482606838401</v>
+        <v>36.108145583302601</v>
       </c>
       <c r="Z48" s="21">
-        <v>26.660901182639282</v>
+        <v>44</v>
       </c>
       <c r="AA48">
-        <v>0.50117085226574887</v>
+        <v>0.494646762284078</v>
       </c>
       <c r="AB48">
         <v>3</v>
@@ -5181,7 +5183,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B49" s="17">
         <v>1500</v>
       </c>
@@ -5205,13 +5207,13 @@
         <v>589.47368421052636</v>
       </c>
       <c r="Y49" s="21">
-        <v>39.414858506981318</v>
+        <v>39.331890478421599</v>
       </c>
       <c r="Z49" s="21">
-        <v>27.394387647441519</v>
+        <v>44</v>
       </c>
       <c r="AA49">
-        <v>0.52888769744286512</v>
+        <v>0.52426844164643105</v>
       </c>
       <c r="AB49">
         <v>3</v>
@@ -5229,7 +5231,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B50" s="17">
         <v>1600</v>
       </c>
@@ -5253,13 +5255,13 @@
         <v>663.1578947368422</v>
       </c>
       <c r="Y50" s="21">
-        <v>42.900059756512633</v>
+        <v>42.76696848398268</v>
       </c>
       <c r="Z50" s="21">
-        <v>28.128270849853966</v>
+        <v>44</v>
       </c>
       <c r="AA50">
-        <v>0.55686923981617598</v>
+        <v>0.55489784187215374</v>
       </c>
       <c r="AB50">
         <v>3</v>
@@ -5277,7 +5279,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B51" s="17">
         <v>1700</v>
       </c>
@@ -5301,13 +5303,13 @@
         <v>736.84210526315792</v>
       </c>
       <c r="Y51" s="21">
-        <v>46.529803153616584</v>
+        <v>46.363489718883834</v>
       </c>
       <c r="Z51" s="21">
-        <v>28.863854423848689</v>
+        <v>44</v>
       </c>
       <c r="AA51">
-        <v>0.58499268084762002</v>
+        <v>0.58625219055178779</v>
       </c>
       <c r="AB51">
         <v>3</v>
@@ -5325,7 +5327,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B52" s="17">
         <v>1800</v>
       </c>
@@ -5349,13 +5351,13 @@
         <v>810.52631578947376</v>
       </c>
       <c r="Y52" s="21">
-        <v>50.303398708095813</v>
+        <v>50.122896353291857</v>
       </c>
       <c r="Z52" s="21">
-        <v>29.602614036332209</v>
+        <v>44</v>
       </c>
       <c r="AA52">
-        <v>0.61322383130405644</v>
+        <v>0.61830428681369365</v>
       </c>
       <c r="AB52">
         <v>3</v>
@@ -5373,7 +5375,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B53" s="17">
         <v>1900</v>
       </c>
@@ -5397,13 +5399,13 @@
         <v>884.21052631578959</v>
       </c>
       <c r="Y53" s="21">
-        <v>54.266679670779155</v>
+        <v>54.102289119142732</v>
       </c>
       <c r="Z53" s="21">
-        <v>30.350624387865071</v>
+        <v>44</v>
       </c>
       <c r="AA53">
-        <v>0.64151454355784154</v>
+        <v>0.65120089870913322</v>
       </c>
       <c r="AB53">
         <v>3</v>
@@ -5421,7 +5423,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B54" s="17">
         <v>2000</v>
       </c>
@@ -5445,13 +5447,13 @@
         <v>957.89473684210532</v>
       </c>
       <c r="Y54" s="21">
-        <v>58.988691866288988</v>
+        <v>58.840840899925638</v>
       </c>
       <c r="Z54" s="21">
-        <v>31.108340507211327</v>
+        <v>44</v>
       </c>
       <c r="AA54">
-        <v>0.79544791510646329</v>
+        <v>0.80286109693577123</v>
       </c>
       <c r="AB54">
         <v>3</v>
@@ -5469,7 +5471,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B55" s="17">
         <v>2100</v>
       </c>
@@ -5493,13 +5495,13 @@
         <v>1030.3157894736842</v>
       </c>
       <c r="Y55" s="21">
-        <v>64.065311468489838</v>
+        <v>63.927557116516105</v>
       </c>
       <c r="Z55" s="21">
-        <v>31.908883297360468</v>
+        <v>44</v>
       </c>
       <c r="AA55">
-        <v>0.90709439935437863</v>
+        <v>0.91278833470158116</v>
       </c>
       <c r="AB55">
         <v>3</v>
@@ -5517,7 +5519,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B56" s="17">
         <v>2200</v>
       </c>
@@ -5541,13 +5543,13 @@
         <v>1101</v>
       </c>
       <c r="Y56" s="21">
-        <v>69.336281991919961</v>
+        <v>69.200915479038741</v>
       </c>
       <c r="Z56" s="21">
-        <v>32.785766088091044</v>
+        <v>44</v>
       </c>
       <c r="AA56">
-        <v>0.91667801430037621</v>
+        <v>0.92387771056534984</v>
       </c>
       <c r="AB56">
         <v>3</v>
@@ -5565,7 +5567,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B57" s="17">
         <v>2300</v>
       </c>
@@ -5589,13 +5591,13 @@
         <v>1171</v>
       </c>
       <c r="Y57" s="21">
-        <v>74.574015572957052</v>
+        <v>74.454523224966437</v>
       </c>
       <c r="Z57" s="21">
-        <v>33.958621737278314</v>
+        <v>44</v>
       </c>
       <c r="AA57">
-        <v>0.92636415820018136</v>
+        <v>0.9348740590135024</v>
       </c>
       <c r="AB57">
         <v>3</v>
@@ -5613,7 +5615,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B58" s="17">
         <v>2400</v>
       </c>
@@ -5637,13 +5639,13 @@
         <v>1239.9473684210527</v>
       </c>
       <c r="Y58" s="21">
-        <v>79.755921742187581</v>
+        <v>79.662844110191159</v>
       </c>
       <c r="Z58" s="21">
-        <v>35.819731046532453</v>
+        <v>44</v>
       </c>
       <c r="AA58">
-        <v>0.93444042342744571</v>
+        <v>0.94432394022219335</v>
       </c>
       <c r="AB58">
         <v>3</v>
@@ -5661,7 +5663,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B59" s="17">
         <v>2500</v>
       </c>
@@ -5685,13 +5687,13 @@
         <v>1307.9473684210527</v>
       </c>
       <c r="Y59" s="21">
-        <v>84.895741117431442</v>
+        <v>84.841666990061469</v>
       </c>
       <c r="Z59" s="21">
-        <v>38.984417453209602</v>
+        <v>44</v>
       </c>
       <c r="AA59">
-        <v>0.94009143990044941</v>
+        <v>0.9517342876252628</v>
       </c>
       <c r="AB59">
         <v>3</v>
@@ -5709,7 +5711,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B60" s="17">
         <v>2600</v>
       </c>
@@ -5739,7 +5741,7 @@
         <v>44</v>
       </c>
       <c r="AA60">
-        <v>0.94253612126001329</v>
+        <v>0.95658693059062594</v>
       </c>
       <c r="AB60">
         <v>3</v>
@@ -5757,7 +5759,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B61" s="17">
         <v>2700</v>
       </c>
@@ -5805,7 +5807,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B62" s="17">
         <v>2800</v>
       </c>
@@ -5853,7 +5855,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B63" s="17">
         <v>3500</v>
       </c>
@@ -5895,7 +5897,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="G64" s="10"/>
@@ -5933,7 +5935,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
       <c r="G65" s="10"/>
@@ -5971,7 +5973,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:32" x14ac:dyDescent="0.25">
       <c r="V66" t="e">
         <v>#N/A</v>
       </c>
@@ -6006,7 +6008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.25">
       <c r="V67" t="e">
         <v>#N/A</v>
       </c>
@@ -6041,7 +6043,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:32" x14ac:dyDescent="0.25">
       <c r="V68" t="e">
         <v>#N/A</v>
       </c>

--- a/exercises/ex050.MF_pipe_new.xlsx
+++ b/exercises/ex050.MF_pipe_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5CB4E2-ED7A-4716-A836-12539A8A0D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D91B1AB-EB6D-4929-966D-C1DC0D64D2CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
+    <workbookView xWindow="-23100" yWindow="390" windowWidth="22410" windowHeight="20085" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="трубопровод" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <definedName name="Tres_" localSheetId="0">трубопровод!$C$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,6 +114,28 @@
     </comment>
   </commentList>
 </comments>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1008,64 +1031,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>18.203319786578863</c:v>
+                  <c:v>116.93397290441597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.309273790043498</c:v>
+                  <c:v>122.67741530452044</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.548352324668475</c:v>
+                  <c:v>128.42880093856405</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.922957201614828</c:v>
+                  <c:v>134.18746468645395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.451482752197492</c:v>
+                  <c:v>139.9532914495997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.18781200814999</c:v>
+                  <c:v>145.72677112505417</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.072624854970911</c:v>
+                  <c:v>151.50476294091882</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.108145583302601</c:v>
+                  <c:v>157.28693675263835</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.331890478421599</c:v>
+                  <c:v>163.07365504832725</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.76696848398268</c:v>
+                  <c:v>168.86456381341378</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.363489718883834</c:v>
+                  <c:v>174.65821670079472</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.122896353291857</c:v>
+                  <c:v>180.45439016898806</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54.102289119142732</c:v>
+                  <c:v>186.25341285768661</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.840840899925638</c:v>
+                  <c:v>192.01841343551635</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63.927557116516105</c:v>
+                  <c:v>197.70997408126061</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>69.200915479038741</c:v>
+                  <c:v>203.3102043495191</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74.454523224966437</c:v>
+                  <c:v>208.83526673644261</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79.662844110191159</c:v>
+                  <c:v>214.27798936958996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>84.841666990061469</c:v>
+                  <c:v>219.66210167152587</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>90</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,61 +1421,61 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>22.214360728184989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>23.023295686963589</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>23.819525525524195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>24.600762421394741</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>25.362162960842902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>26.091710031402613</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>26.797360600591858</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44</c:v>
+                  <c:v>27.479321865713864</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>28.133399494221468</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>28.764371397531953</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44</c:v>
+                  <c:v>29.385333946407723</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44</c:v>
+                  <c:v>30.001157506407111</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44</c:v>
+                  <c:v>30.623097534559321</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>31.277791233421745</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44</c:v>
+                  <c:v>32.00159174935429</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44</c:v>
+                  <c:v>32.831833947641499</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44</c:v>
+                  <c:v>34.002802054923819</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>35.891126422447769</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44</c:v>
+                  <c:v>39.055430092571278</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44</c:v>
@@ -1787,64 +1810,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.31071269081179359</c:v>
+                  <c:v>0.94797198230760182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33470921528018915</c:v>
+                  <c:v>0.94955196407011111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3593743141991842</c:v>
+                  <c:v>0.95094207308717504</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38472220009121355</c:v>
+                  <c:v>0.95216084182496075</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41084847778999578</c:v>
+                  <c:v>0.95321497201100325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43802876656136952</c:v>
+                  <c:v>0.95410132897812006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46595938839706624</c:v>
+                  <c:v>0.95489293029320688</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.494646762284078</c:v>
+                  <c:v>0.9555982927999036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52426844164643105</c:v>
+                  <c:v>0.95621253389696692</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55489784187215374</c:v>
+                  <c:v>0.95674373582088501</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.58625219055178779</c:v>
+                  <c:v>0.95721911289752493</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61830428681369365</c:v>
+                  <c:v>0.95764171053791669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.65120089870913322</c:v>
+                  <c:v>0.95799954147134414</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.80286109693577123</c:v>
+                  <c:v>0.96738941563199854</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.91278833470158116</c:v>
+                  <c:v>0.97466282785486746</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92387771056534984</c:v>
+                  <c:v>0.9758746892998289</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.9348740590135024</c:v>
+                  <c:v>0.97766866250655715</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.94432394022219335</c:v>
+                  <c:v>0.97893365193450976</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.9517342876252628</c:v>
+                  <c:v>0.97924809845147776</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.95658693059062594</c:v>
+                  <c:v>0.97823243604939192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3910,8 +3933,8 @@
       <definedName name="PVT_encode_string"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4215,10 +4238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A7C6B1-D08D-4B8C-90EB-0A5185B9FB63}">
   <sheetPr codeName="Worksheet____1"/>
-  <dimension ref="A1:AF68"/>
+  <dimension ref="A1:AF96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W43" sqref="W43"/>
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4467,7 +4490,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="3">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>13</v>
@@ -4620,10 +4643,10 @@
       <c r="G38" s="10"/>
       <c r="V38" s="21">
         <f t="array" ref="V38:AF68">[1]!MF_p_pipeline_atma(qliq_,fw_,B43:C48,Pcalc_,C25,P33,P34,PVTstr_,,hcor,E43:F45,tempm)</f>
-        <v>18.203319786578863</v>
+        <v>116.93397290441597</v>
       </c>
       <c r="W38" s="21">
-        <v>44</v>
+        <v>22.214360728184989</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -4775,13 +4798,13 @@
         <v>0</v>
       </c>
       <c r="Y41" s="21">
-        <v>18.203319786578863</v>
+        <v>116.93397290441597</v>
       </c>
       <c r="Z41" s="21">
-        <v>44</v>
+        <v>22.214360728184989</v>
       </c>
       <c r="AA41">
-        <v>0.31071269081179359</v>
+        <v>0.94797198230760182</v>
       </c>
       <c r="AB41">
         <v>3</v>
@@ -4835,13 +4858,13 @@
         <v>73.684210526315795</v>
       </c>
       <c r="Y42" s="21">
-        <v>20.309273790043498</v>
+        <v>122.67741530452044</v>
       </c>
       <c r="Z42" s="21">
-        <v>44</v>
+        <v>23.023295686963589</v>
       </c>
       <c r="AA42">
-        <v>0.33470921528018915</v>
+        <v>0.94955196407011111</v>
       </c>
       <c r="AB42">
         <v>3</v>
@@ -4895,13 +4918,13 @@
         <v>147.36842105263159</v>
       </c>
       <c r="Y43" s="21">
-        <v>22.548352324668475</v>
+        <v>128.42880093856405</v>
       </c>
       <c r="Z43" s="21">
-        <v>44</v>
+        <v>23.819525525524195</v>
       </c>
       <c r="AA43">
-        <v>0.3593743141991842</v>
+        <v>0.95094207308717504</v>
       </c>
       <c r="AB43">
         <v>3</v>
@@ -4955,13 +4978,13 @@
         <v>221.0526315789474</v>
       </c>
       <c r="Y44" s="21">
-        <v>24.922957201614828</v>
+        <v>134.18746468645395</v>
       </c>
       <c r="Z44" s="21">
-        <v>44</v>
+        <v>24.600762421394741</v>
       </c>
       <c r="AA44">
-        <v>0.38472220009121355</v>
+        <v>0.95216084182496075</v>
       </c>
       <c r="AB44">
         <v>3</v>
@@ -5015,13 +5038,13 @@
         <v>294.73684210526318</v>
       </c>
       <c r="Y45" s="21">
-        <v>27.451482752197492</v>
+        <v>139.9532914495997</v>
       </c>
       <c r="Z45" s="21">
-        <v>44</v>
+        <v>25.362162960842902</v>
       </c>
       <c r="AA45">
-        <v>0.41084847778999578</v>
+        <v>0.95321497201100325</v>
       </c>
       <c r="AB45">
         <v>3</v>
@@ -5063,13 +5086,13 @@
         <v>368.42105263157896</v>
       </c>
       <c r="Y46" s="21">
-        <v>30.18781200814999</v>
+        <v>145.72677112505417</v>
       </c>
       <c r="Z46" s="21">
-        <v>44</v>
+        <v>26.091710031402613</v>
       </c>
       <c r="AA46">
-        <v>0.43802876656136952</v>
+        <v>0.95410132897812006</v>
       </c>
       <c r="AB46">
         <v>3</v>
@@ -5111,13 +5134,13 @@
         <v>442.1052631578948</v>
       </c>
       <c r="Y47" s="21">
-        <v>33.072624854970911</v>
+        <v>151.50476294091882</v>
       </c>
       <c r="Z47" s="21">
-        <v>44</v>
+        <v>26.797360600591858</v>
       </c>
       <c r="AA47">
-        <v>0.46595938839706624</v>
+        <v>0.95489293029320688</v>
       </c>
       <c r="AB47">
         <v>3</v>
@@ -5159,13 +5182,13 @@
         <v>515.78947368421052</v>
       </c>
       <c r="Y48" s="21">
-        <v>36.108145583302601</v>
+        <v>157.28693675263835</v>
       </c>
       <c r="Z48" s="21">
-        <v>44</v>
+        <v>27.479321865713864</v>
       </c>
       <c r="AA48">
-        <v>0.494646762284078</v>
+        <v>0.9555982927999036</v>
       </c>
       <c r="AB48">
         <v>3</v>
@@ -5207,13 +5230,13 @@
         <v>589.47368421052636</v>
       </c>
       <c r="Y49" s="21">
-        <v>39.331890478421599</v>
+        <v>163.07365504832725</v>
       </c>
       <c r="Z49" s="21">
-        <v>44</v>
+        <v>28.133399494221468</v>
       </c>
       <c r="AA49">
-        <v>0.52426844164643105</v>
+        <v>0.95621253389696692</v>
       </c>
       <c r="AB49">
         <v>3</v>
@@ -5255,13 +5278,13 @@
         <v>663.1578947368422</v>
       </c>
       <c r="Y50" s="21">
-        <v>42.76696848398268</v>
+        <v>168.86456381341378</v>
       </c>
       <c r="Z50" s="21">
-        <v>44</v>
+        <v>28.764371397531953</v>
       </c>
       <c r="AA50">
-        <v>0.55489784187215374</v>
+        <v>0.95674373582088501</v>
       </c>
       <c r="AB50">
         <v>3</v>
@@ -5303,13 +5326,13 @@
         <v>736.84210526315792</v>
       </c>
       <c r="Y51" s="21">
-        <v>46.363489718883834</v>
+        <v>174.65821670079472</v>
       </c>
       <c r="Z51" s="21">
-        <v>44</v>
+        <v>29.385333946407723</v>
       </c>
       <c r="AA51">
-        <v>0.58625219055178779</v>
+        <v>0.95721911289752493</v>
       </c>
       <c r="AB51">
         <v>3</v>
@@ -5351,13 +5374,13 @@
         <v>810.52631578947376</v>
       </c>
       <c r="Y52" s="21">
-        <v>50.122896353291857</v>
+        <v>180.45439016898806</v>
       </c>
       <c r="Z52" s="21">
-        <v>44</v>
+        <v>30.001157506407111</v>
       </c>
       <c r="AA52">
-        <v>0.61830428681369365</v>
+        <v>0.95764171053791669</v>
       </c>
       <c r="AB52">
         <v>3</v>
@@ -5399,13 +5422,13 @@
         <v>884.21052631578959</v>
       </c>
       <c r="Y53" s="21">
-        <v>54.102289119142732</v>
+        <v>186.25341285768661</v>
       </c>
       <c r="Z53" s="21">
-        <v>44</v>
+        <v>30.623097534559321</v>
       </c>
       <c r="AA53">
-        <v>0.65120089870913322</v>
+        <v>0.95799954147134414</v>
       </c>
       <c r="AB53">
         <v>3</v>
@@ -5447,13 +5470,13 @@
         <v>957.89473684210532</v>
       </c>
       <c r="Y54" s="21">
-        <v>58.840840899925638</v>
+        <v>192.01841343551635</v>
       </c>
       <c r="Z54" s="21">
-        <v>44</v>
+        <v>31.277791233421745</v>
       </c>
       <c r="AA54">
-        <v>0.80286109693577123</v>
+        <v>0.96738941563199854</v>
       </c>
       <c r="AB54">
         <v>3</v>
@@ -5495,13 +5518,13 @@
         <v>1030.3157894736842</v>
       </c>
       <c r="Y55" s="21">
-        <v>63.927557116516105</v>
+        <v>197.70997408126061</v>
       </c>
       <c r="Z55" s="21">
-        <v>44</v>
+        <v>32.00159174935429</v>
       </c>
       <c r="AA55">
-        <v>0.91278833470158116</v>
+        <v>0.97466282785486746</v>
       </c>
       <c r="AB55">
         <v>3</v>
@@ -5543,13 +5566,13 @@
         <v>1101</v>
       </c>
       <c r="Y56" s="21">
-        <v>69.200915479038741</v>
+        <v>203.3102043495191</v>
       </c>
       <c r="Z56" s="21">
-        <v>44</v>
+        <v>32.831833947641499</v>
       </c>
       <c r="AA56">
-        <v>0.92387771056534984</v>
+        <v>0.9758746892998289</v>
       </c>
       <c r="AB56">
         <v>3</v>
@@ -5591,13 +5614,13 @@
         <v>1171</v>
       </c>
       <c r="Y57" s="21">
-        <v>74.454523224966437</v>
+        <v>208.83526673644261</v>
       </c>
       <c r="Z57" s="21">
-        <v>44</v>
+        <v>34.002802054923819</v>
       </c>
       <c r="AA57">
-        <v>0.9348740590135024</v>
+        <v>0.97766866250655715</v>
       </c>
       <c r="AB57">
         <v>3</v>
@@ -5639,13 +5662,13 @@
         <v>1239.9473684210527</v>
       </c>
       <c r="Y58" s="21">
-        <v>79.662844110191159</v>
+        <v>214.27798936958996</v>
       </c>
       <c r="Z58" s="21">
-        <v>44</v>
+        <v>35.891126422447769</v>
       </c>
       <c r="AA58">
-        <v>0.94432394022219335</v>
+        <v>0.97893365193450976</v>
       </c>
       <c r="AB58">
         <v>3</v>
@@ -5687,13 +5710,13 @@
         <v>1307.9473684210527</v>
       </c>
       <c r="Y59" s="21">
-        <v>84.841666990061469</v>
+        <v>219.66210167152587</v>
       </c>
       <c r="Z59" s="21">
-        <v>44</v>
+        <v>39.055430092571278</v>
       </c>
       <c r="AA59">
-        <v>0.9517342876252628</v>
+        <v>0.97924809845147776</v>
       </c>
       <c r="AB59">
         <v>3</v>
@@ -5735,13 +5758,13 @@
         <v>1375</v>
       </c>
       <c r="Y60" s="21">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="Z60" s="21">
         <v>44</v>
       </c>
       <c r="AA60">
-        <v>0.95658693059062594</v>
+        <v>0.97823243604939192</v>
       </c>
       <c r="AB60">
         <v>3</v>
@@ -6078,6 +6101,536 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="V74" cm="1">
+        <f t="array" ref="V74:AB96">[1]!MF_p_pipeline_atma(qliq_,fw_,B43:C65,Pcalc_,C25,P33,P34,PVTstr_,H43:I45,hcor,E43:F45,tempm)</f>
+        <v>27.770669951541926</v>
+      </c>
+      <c r="W74">
+        <v>21.608672481258701</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="V75" t="str">
+        <v>p_result_atma</v>
+      </c>
+      <c r="W75" t="str">
+        <v>t_result_C</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="V76" t="str">
+        <v>num</v>
+      </c>
+      <c r="W76" t="str">
+        <v>h,m</v>
+      </c>
+      <c r="X76" t="str">
+        <v>hvert,m</v>
+      </c>
+      <c r="Y76" t="str">
+        <v>p,atma</v>
+      </c>
+      <c r="Z76" t="str">
+        <v>t,C</v>
+      </c>
+      <c r="AA76" t="str">
+        <v>Hl</v>
+      </c>
+      <c r="AB76" t="str">
+        <v>fpat</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="V77">
+        <v>1</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>27.770669951541926</v>
+      </c>
+      <c r="Z77">
+        <v>21.608672481258701</v>
+      </c>
+      <c r="AA77">
+        <v>0.84884660831734737</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="V78">
+        <v>2</v>
+      </c>
+      <c r="W78">
+        <v>184.21052631578948</v>
+      </c>
+      <c r="X78">
+        <v>184.21052631578948</v>
+      </c>
+      <c r="Y78">
+        <v>42.455099461580076</v>
+      </c>
+      <c r="Z78">
+        <v>23.371865066082663</v>
+      </c>
+      <c r="AA78">
+        <v>0.99791083922576929</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="V79">
+        <v>3</v>
+      </c>
+      <c r="W79">
+        <v>368.42105263157896</v>
+      </c>
+      <c r="X79">
+        <v>368.42105263157896</v>
+      </c>
+      <c r="Y79">
+        <v>57.679466211198331</v>
+      </c>
+      <c r="Z79">
+        <v>25.15697761054972</v>
+      </c>
+      <c r="AA79">
+        <v>1</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="V80">
+        <v>4</v>
+      </c>
+      <c r="W80">
+        <v>552.63157894736844</v>
+      </c>
+      <c r="X80">
+        <v>552.63157894736844</v>
+      </c>
+      <c r="Y80">
+        <v>72.763016079950503</v>
+      </c>
+      <c r="Z80">
+        <v>26.986987596568426</v>
+      </c>
+      <c r="AA80">
+        <v>1</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="22:28" x14ac:dyDescent="0.25">
+      <c r="V81">
+        <v>5</v>
+      </c>
+      <c r="W81">
+        <v>736.84210526315792</v>
+      </c>
+      <c r="X81">
+        <v>736.84210526315792</v>
+      </c>
+      <c r="Y81">
+        <v>87.696318804146046</v>
+      </c>
+      <c r="Z81">
+        <v>28.86109792907606</v>
+      </c>
+      <c r="AA81">
+        <v>1</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="22:28" x14ac:dyDescent="0.25">
+      <c r="V82">
+        <v>6</v>
+      </c>
+      <c r="W82">
+        <v>921.0526315789474</v>
+      </c>
+      <c r="X82">
+        <v>921.0526315789474</v>
+      </c>
+      <c r="Y82">
+        <v>102.49793257375246</v>
+      </c>
+      <c r="Z82">
+        <v>30.766229988771219</v>
+      </c>
+      <c r="AA82">
+        <v>1</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="22:28" x14ac:dyDescent="0.25">
+      <c r="V83">
+        <v>7</v>
+      </c>
+      <c r="W83">
+        <v>1105.2631578947369</v>
+      </c>
+      <c r="X83">
+        <v>1101</v>
+      </c>
+      <c r="Y83">
+        <v>116.84949317831541</v>
+      </c>
+      <c r="Z83">
+        <v>32.642975114160755</v>
+      </c>
+      <c r="AA83">
+        <v>1</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="22:28" x14ac:dyDescent="0.25">
+      <c r="V84">
+        <v>8</v>
+      </c>
+      <c r="W84">
+        <v>1289.4736842105262</v>
+      </c>
+      <c r="X84">
+        <v>1274.2105263157894</v>
+      </c>
+      <c r="Y84">
+        <v>130.64889656273505</v>
+      </c>
+      <c r="Z84">
+        <v>34.612217754228517</v>
+      </c>
+      <c r="AA84">
+        <v>1</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="22:28" x14ac:dyDescent="0.25">
+      <c r="V85">
+        <v>9</v>
+      </c>
+      <c r="W85">
+        <v>1473.6842105263158</v>
+      </c>
+      <c r="X85">
+        <v>1440.578947368421</v>
+      </c>
+      <c r="Y85">
+        <v>143.89370457222739</v>
+      </c>
+      <c r="Z85">
+        <v>37.834030017258506</v>
+      </c>
+      <c r="AA85">
+        <v>1</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="22:28" x14ac:dyDescent="0.25">
+      <c r="V86">
+        <v>10</v>
+      </c>
+      <c r="W86">
+        <v>1657.8947368421054</v>
+      </c>
+      <c r="X86">
+        <v>1600.2105263157896</v>
+      </c>
+      <c r="Y86">
+        <v>156.566985901728</v>
+      </c>
+      <c r="Z86">
+        <v>45.31421751995488</v>
+      </c>
+      <c r="AA86">
+        <v>1</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="22:28" x14ac:dyDescent="0.25">
+      <c r="V87">
+        <v>11</v>
+      </c>
+      <c r="W87">
+        <v>1842.1052631578948</v>
+      </c>
+      <c r="X87">
+        <v>1753.1052631578948</v>
+      </c>
+      <c r="Y87">
+        <v>168.65066584038846</v>
+      </c>
+      <c r="Z87">
+        <v>53.409638800668681</v>
+      </c>
+      <c r="AA87">
+        <v>1</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="22:28" x14ac:dyDescent="0.25">
+      <c r="V88">
+        <v>12</v>
+      </c>
+      <c r="W88">
+        <v>2026.3157894736842</v>
+      </c>
+      <c r="X88">
+        <v>1899.2631578947369</v>
+      </c>
+      <c r="Y88">
+        <v>180.14981375754502</v>
+      </c>
+      <c r="Z88">
+        <v>61.166056904961152</v>
+      </c>
+      <c r="AA88">
+        <v>1</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="22:28" x14ac:dyDescent="0.25">
+      <c r="V89">
+        <v>13</v>
+      </c>
+      <c r="W89">
+        <v>2210.5263157894738</v>
+      </c>
+      <c r="X89">
+        <v>2038.6842105263158</v>
+      </c>
+      <c r="Y89">
+        <v>191.07085866290114</v>
+      </c>
+      <c r="Z89">
+        <v>68.573204641675133</v>
+      </c>
+      <c r="AA89">
+        <v>1</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="22:28" x14ac:dyDescent="0.25">
+      <c r="V90">
+        <v>14</v>
+      </c>
+      <c r="W90">
+        <v>2394.7368421052633</v>
+      </c>
+      <c r="X90">
+        <v>2171.2631578947371</v>
+      </c>
+      <c r="Y90">
+        <v>201.41106542274261</v>
+      </c>
+      <c r="Z90">
+        <v>75.595982081607218</v>
+      </c>
+      <c r="AA90">
+        <v>1</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="22:28" x14ac:dyDescent="0.25">
+      <c r="V91">
+        <v>15</v>
+      </c>
+      <c r="W91">
+        <v>2578.9473684210525</v>
+      </c>
+      <c r="X91">
+        <v>2296.894736842105</v>
+      </c>
+      <c r="Y91">
+        <v>211.16821158467116</v>
+      </c>
+      <c r="Z91">
+        <v>82.031547026011268</v>
+      </c>
+      <c r="AA91">
+        <v>1</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="22:28" x14ac:dyDescent="0.25">
+      <c r="V92">
+        <v>16</v>
+      </c>
+      <c r="W92">
+        <v>2763.1578947368421</v>
+      </c>
+      <c r="X92">
+        <v>2415.7894736842104</v>
+      </c>
+      <c r="Y92">
+        <v>219.1268647242116</v>
+      </c>
+      <c r="Z92">
+        <v>86.521072814143565</v>
+      </c>
+      <c r="AA92">
+        <v>1</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="22:28" x14ac:dyDescent="0.25">
+      <c r="V93">
+        <v>17</v>
+      </c>
+      <c r="W93">
+        <v>2947.3684210526317</v>
+      </c>
+      <c r="X93">
+        <v>2451.8421052631579</v>
+      </c>
+      <c r="Y93">
+        <v>221.20439863768982</v>
+      </c>
+      <c r="Z93">
+        <v>87.68605043352207</v>
+      </c>
+      <c r="AA93">
+        <v>1</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="22:28" x14ac:dyDescent="0.25">
+      <c r="V94">
+        <v>18</v>
+      </c>
+      <c r="W94">
+        <v>3131.5789473684213</v>
+      </c>
+      <c r="X94">
+        <v>2467.8947368421054</v>
+      </c>
+      <c r="Y94">
+        <v>222.46457997306234</v>
+      </c>
+      <c r="Z94">
+        <v>87.708287804580962</v>
+      </c>
+      <c r="AA94">
+        <v>1</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="22:28" x14ac:dyDescent="0.25">
+      <c r="V95">
+        <v>19</v>
+      </c>
+      <c r="W95">
+        <v>3315.7894736842109</v>
+      </c>
+      <c r="X95">
+        <v>2483.9473684210525</v>
+      </c>
+      <c r="Y95">
+        <v>223.72620503463835</v>
+      </c>
+      <c r="Z95">
+        <v>82.587937153304082</v>
+      </c>
+      <c r="AA95">
+        <v>1</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="22:28" x14ac:dyDescent="0.25">
+      <c r="V96">
+        <v>20</v>
+      </c>
+      <c r="W96">
+        <v>3500</v>
+      </c>
+      <c r="X96">
+        <v>2500</v>
+      </c>
+      <c r="Y96">
+        <v>225</v>
+      </c>
+      <c r="Z96">
+        <v>44</v>
+      </c>
+      <c r="AA96">
+        <v>1</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
